--- a/Slovicka/Kniha C#.xlsx
+++ b/Slovicka/Kniha C#.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P3404227\Documents\Afrika\GIT_Ucenie\Manualy_DOC\Slovicka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\Git_Learning\Docky\Slovicka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DBCB6B2-1376-4123-B290-1DDE5C273FDB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20790" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20796" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Kniha C#</t>
   </si>
@@ -324,7 +323,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -360,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,21 +670,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -707,7 +706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -729,7 +728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -751,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -762,7 +761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -773,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -784,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -795,7 +794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -806,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -817,7 +816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -828,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -839,7 +838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -850,7 +849,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -861,7 +860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -872,7 +871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -883,7 +882,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -894,7 +893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -905,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -916,7 +915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -927,7 +926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -938,7 +937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -949,7 +948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -960,7 +959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -971,7 +970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -982,7 +981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -993,7 +992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1048,9 +1047,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>39</v>
